--- a/GitTreino.xlsx
+++ b/GitTreino.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\BetaUnityProjects\TreinoGit_N1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0EEF1A-6737-4EAC-A5C2-438D0A49921C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2388CBB9-DBBC-4CD2-89E7-4427F291BA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Entrada </t>
   </si>
@@ -48,9 +48,6 @@
     <t>git add</t>
   </si>
   <si>
-    <t>Faz com que um arquivo seja enviado ao terminal e o autoriza a ser comitado.</t>
-  </si>
-  <si>
     <t>git config --global user.email "seu@email.com"</t>
   </si>
   <si>
@@ -61,6 +58,27 @@
   </si>
   <si>
     <t>Esclarece seu nome</t>
+  </si>
+  <si>
+    <t>Faz com que um arquivo seja enviado ao terminal e o autoriza a ser comitado e monitorado</t>
+  </si>
+  <si>
+    <t>Adiciona todos os arquivos da pasta e subpasta ao terminal para ser comitado</t>
+  </si>
+  <si>
+    <t>git add .</t>
+  </si>
+  <si>
+    <t>git commit (nome do arquivo) -m "Menssagem a ser salva"</t>
+  </si>
+  <si>
+    <t>Commita um arquivo único e atrela a uma msg.</t>
+  </si>
+  <si>
+    <t>git commit -a -m "Msg a registrar"</t>
+  </si>
+  <si>
+    <t>Commita todos os arquivos de uma vez.</t>
   </si>
 </sst>
 </file>
@@ -414,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -437,18 +455,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -472,7 +490,31 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/GitTreino.xlsx
+++ b/GitTreino.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\BetaUnityProjects\TreinoGit_N1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2388CBB9-DBBC-4CD2-89E7-4427F291BA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CF9291-31F0-491D-A779-2CED1DC8986F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Entrada </t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>Commita todos os arquivos de uma vez.</t>
+  </si>
+  <si>
+    <t>git push</t>
+  </si>
+  <si>
+    <t>Envia para o servidor na nuuvem (Requer ter configura origin do servidor Ex. GitHub, gitBuckt</t>
   </si>
 </sst>
 </file>
@@ -432,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -517,6 +523,14 @@
         <v>17</v>
       </c>
     </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/GitTreino.xlsx
+++ b/GitTreino.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\BetaUnityProjects\TreinoGit_N1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\One_Drive\OneDrive\BetaUnityProjects\TreinoGit_N1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CF9291-31F0-491D-A779-2CED1DC8986F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7188F6-C9A5-4353-9F9A-E117FDFB74B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">Entrada </t>
   </si>
@@ -85,6 +85,24 @@
   </si>
   <si>
     <t>Envia para o servidor na nuuvem (Requer ter configura origin do servidor Ex. GitHub, gitBuckt</t>
+  </si>
+  <si>
+    <t>git pull</t>
+  </si>
+  <si>
+    <t>Faz download dos arquivos do repositório e atualiza na pasta</t>
+  </si>
+  <si>
+    <t>git rm "Nome do arquivo"</t>
+  </si>
+  <si>
+    <t>Remove arquivos do PC e marca para o git que devem ser removidos no próximo download</t>
+  </si>
+  <si>
+    <t>git log</t>
+  </si>
+  <si>
+    <t>Emite um log das alterações feitas</t>
   </si>
 </sst>
 </file>
@@ -438,17 +456,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="71.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -531,6 +549,30 @@
         <v>19</v>
       </c>
     </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/GitTreino.xlsx
+++ b/GitTreino.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\One_Drive\OneDrive\BetaUnityProjects\TreinoGit_N1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7188F6-C9A5-4353-9F9A-E117FDFB74B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC70CDAD-D30A-46A9-93D1-36CD74F5D0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">Entrada </t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>Emite um log das alterações feitas</t>
+  </si>
+  <si>
+    <t>Recorda e cola um arquivo.</t>
+  </si>
+  <si>
+    <t>git mv "nomeDoArquivo" "local/Destino"</t>
   </si>
 </sst>
 </file>
@@ -456,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -573,6 +579,14 @@
         <v>25</v>
       </c>
     </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/GitTreino.xlsx
+++ b/GitTreino.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\One_Drive\OneDrive\BetaUnityProjects\TreinoGit_N1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC70CDAD-D30A-46A9-93D1-36CD74F5D0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA4209C-1C30-4405-9B32-33E23D3FB239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">Entrada </t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>git mv "nomeDoArquivo" "local/Destino"</t>
+  </si>
+  <si>
+    <t>git checkout</t>
+  </si>
+  <si>
+    <t>Retorna o arquivo para sua última versão salva</t>
   </si>
 </sst>
 </file>
@@ -462,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -587,6 +593,14 @@
         <v>26</v>
       </c>
     </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/GitTreino.xlsx
+++ b/GitTreino.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\One_Drive\OneDrive\BetaUnityProjects\TreinoGit_N1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA4209C-1C30-4405-9B32-33E23D3FB239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D309FF-56C8-4204-B34B-F4BB5D7DF7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">Entrada </t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Retorna o arquivo para sua última versão salva</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -468,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -601,6 +604,11 @@
         <v>29</v>
       </c>
     </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
